--- a/map coordinated qr codes.xlsx
+++ b/map coordinated qr codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\class finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS TUF\Documents\GitHub\navit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25712043-44D9-4154-A510-76D6CED1C53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA4B82-6AE2-43CD-98C0-7D0B248B71D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -59,20 +59,30 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="3">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>latitude</t>
   </si>
@@ -84,6 +94,9 @@
   </si>
   <si>
     <t>qr code</t>
+  </si>
+  <si>
+    <t>ubuntu lab</t>
   </si>
 </sst>
 </file>
@@ -168,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,12 +208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,14 +279,23 @@
   <webImageSrd>
     <address r:id="rId1"/>
   </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId2"/>
+  </webImageSrd>
 </webImagesSrd>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
     <v>12</v>
     <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>-1</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
   </rv>
   <rv s="1">
     <v>-1</v>
@@ -3165,7 +3181,7 @@
         <v>303</v>
       </c>
       <c r="E33" s="3" t="e" vm="1">
-        <f t="shared" ref="E33:E64" si="4">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;D33&amp;"&gt;")</f>
+        <f t="shared" ref="E33:E58" si="4">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;D33&amp;"&gt;")</f>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="2">
@@ -4097,14 +4113,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057824A0-70EA-414E-AFD3-80589113AED7}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4117,22 +4134,28 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="11"/>
+    <row r="2" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>30.2731289</v>
+      </c>
+      <c r="B2" s="5">
+        <v>77.9997726</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="5" t="e" vm="2">
-        <f>_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;C2&amp;"&gt;")</f>
+        <f>_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;""&amp;"&gt;""")</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4140,10 +4163,10 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="5" t="e" vm="2">
+      <c r="G3" s="5" t="e" vm="1">
         <f t="shared" ref="G3:G7" si="0">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;C3&amp;"&gt;")</f>
         <v>#VALUE!</v>
       </c>
@@ -4152,10 +4175,10 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="5" t="e" vm="2">
+      <c r="G4" s="5" t="e" vm="1">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -4164,10 +4187,10 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="5" t="e" vm="2">
+      <c r="G5" s="5" t="e" vm="1">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -4176,10 +4199,10 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5" t="e" vm="2">
+      <c r="G6" s="5" t="e" vm="1">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -4188,11 +4211,11 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5" t="e" vm="2">
-        <f t="shared" si="0"/>
+      <c r="G7" s="5" t="e" vm="3">
+        <f>_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;C7&amp;"&gt;")</f>
         <v>#VALUE!</v>
       </c>
     </row>
